--- a/ex_corr/резерв Tmp/tmpДзюба.xlsx
+++ b/ex_corr/резерв Tmp/tmpДзюба.xlsx
@@ -5,21 +5,21 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\VecheslavSP\Desktop\Python\Ros_accred\ex_corr\tmpXLS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Unitess\TEMP\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="8055"/>
   </bookViews>
   <sheets>
-    <sheet name="export_230414_1910" sheetId="1" r:id="rId1"/>
+    <sheet name="export_230418_1016" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="576" uniqueCount="183">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="642" uniqueCount="200">
   <si>
     <t>Дата оформления  заявления-квитанции</t>
   </si>
@@ -303,6 +303,39 @@
     <t xml:space="preserve"> С-МА/03-04-2023/236005303</t>
   </si>
   <si>
+    <t xml:space="preserve"> PD-303</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> НИЦ СТРОИТЕЛЬСТВО АО</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Принято АРШИНом   </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Спектрофотометры медицинские</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1000-014049</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 448-1000-014049-2023-303403</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 26883-04</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 14.04.2023</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 29.03.2023</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> С-МА/14-04-2023/239288872</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 13.04.2024</t>
+  </si>
+  <si>
     <t xml:space="preserve"> СНЕЛ-105</t>
   </si>
   <si>
@@ -327,9 +360,6 @@
     <t xml:space="preserve"> 05.04.2023</t>
   </si>
   <si>
-    <t xml:space="preserve"> 29.03.2023</t>
-  </si>
-  <si>
     <t xml:space="preserve"> С-МА/05-04-2023/236833027</t>
   </si>
   <si>
@@ -417,15 +447,39 @@
     <t xml:space="preserve"> И-МА/13-04-2023/238697168</t>
   </si>
   <si>
+    <t xml:space="preserve"> HI801 iris</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> РМП МЕДТЕХНИКА ООО</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> МОСВОДОКАНАЛ АО</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1000-016174</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 448-1000-016174-2023-81210403</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 75096-19</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 17.04.2023</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> С-МА/17-04-2023/239622641</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 16.04.2024</t>
+  </si>
+  <si>
     <t xml:space="preserve"> РПЛ-3</t>
   </si>
   <si>
     <t xml:space="preserve"> ЦЕНТР ГИГИЕНЫ И ЭПИДЕМИОЛОГИИ В ГОРОДЕ МОСКВЕ ФБУЗ</t>
   </si>
   <si>
-    <t xml:space="preserve"> Принято АРШИНом   </t>
-  </si>
-  <si>
     <t xml:space="preserve"> Рефрактометры лабораторные пищевые</t>
   </si>
   <si>
@@ -439,9 +493,6 @@
   </si>
   <si>
     <t xml:space="preserve"> 427-66</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 14.04.2023</t>
   </si>
   <si>
     <t xml:space="preserve"> 06.04.2023</t>
@@ -728,7 +779,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="34">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -908,12 +959,6 @@
         <bgColor indexed="65"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFF0000"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
   <borders count="10">
     <border>
@@ -1075,11 +1120,9 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="14" fontId="0" fillId="33" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% — акцент1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1401,19 +1444,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AN17"/>
+  <dimension ref="A1:AN19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="J6" sqref="J6"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="10" max="10" width="43.5703125" customWidth="1"/>
-    <col min="17" max="17" width="30.85546875" customWidth="1"/>
-    <col min="22" max="22" width="21" customWidth="1"/>
-    <col min="37" max="37" width="15.7109375" customWidth="1"/>
-  </cols>
   <sheetData>
     <row r="1" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
@@ -2289,7 +2324,7 @@
         <v>95</v>
       </c>
       <c r="G8" t="s">
-        <v>41</v>
+        <v>96</v>
       </c>
       <c r="H8" t="s">
         <v>42</v>
@@ -2298,11 +2333,11 @@
         <v>43</v>
       </c>
       <c r="J8" t="s">
-        <v>96</v>
-      </c>
-      <c r="K8" t="s">
         <v>97</v>
       </c>
+      <c r="K8">
+        <v>303403</v>
+      </c>
       <c r="L8" t="s">
         <v>43</v>
       </c>
@@ -2310,13 +2345,13 @@
         <v>43</v>
       </c>
       <c r="N8">
-        <v>1408</v>
+        <v>4894.68</v>
       </c>
       <c r="O8" t="s">
         <v>43</v>
       </c>
       <c r="P8">
-        <v>581195</v>
+        <v>581184</v>
       </c>
       <c r="Q8" t="s">
         <v>98</v>
@@ -2346,16 +2381,16 @@
         <v>101</v>
       </c>
       <c r="Z8" t="s">
-        <v>78</v>
+        <v>52</v>
       </c>
       <c r="AA8">
-        <v>7734223028</v>
+        <v>5042109739</v>
       </c>
       <c r="AB8" t="s">
         <v>43</v>
       </c>
       <c r="AC8">
-        <v>7734223028</v>
+        <v>5042109739</v>
       </c>
       <c r="AD8" t="s">
         <v>43</v>
@@ -2370,7 +2405,7 @@
         <v>43</v>
       </c>
       <c r="AH8">
-        <v>581195</v>
+        <v>581184</v>
       </c>
       <c r="AI8" t="s">
         <v>103</v>
@@ -2405,10 +2440,10 @@
         <v>39</v>
       </c>
       <c r="E9" t="s">
-        <v>95</v>
+        <v>106</v>
       </c>
       <c r="F9" t="s">
-        <v>95</v>
+        <v>106</v>
       </c>
       <c r="G9" t="s">
         <v>41</v>
@@ -2420,10 +2455,10 @@
         <v>43</v>
       </c>
       <c r="J9" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="K9" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="L9" t="s">
         <v>43</v>
@@ -2432,16 +2467,16 @@
         <v>43</v>
       </c>
       <c r="N9">
-        <v>1980</v>
+        <v>1408</v>
       </c>
       <c r="O9" t="s">
         <v>43</v>
       </c>
       <c r="P9">
-        <v>581206</v>
+        <v>581195</v>
       </c>
       <c r="Q9" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="R9" t="s">
         <v>43</v>
@@ -2456,16 +2491,16 @@
         <v>47</v>
       </c>
       <c r="V9" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="W9" t="s">
         <v>49</v>
       </c>
       <c r="X9" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="Y9" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="Z9" t="s">
         <v>78</v>
@@ -2483,7 +2518,7 @@
         <v>43</v>
       </c>
       <c r="AE9" t="s">
-        <v>112</v>
+        <v>53</v>
       </c>
       <c r="AF9" t="s">
         <v>102</v>
@@ -2492,19 +2527,19 @@
         <v>43</v>
       </c>
       <c r="AH9">
-        <v>581206</v>
+        <v>581195</v>
       </c>
       <c r="AI9" t="s">
         <v>113</v>
       </c>
       <c r="AJ9" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="AK9" t="s">
-        <v>101</v>
+        <v>112</v>
       </c>
       <c r="AL9" t="s">
-        <v>104</v>
+        <v>114</v>
       </c>
       <c r="AM9" t="s">
         <v>49</v>
@@ -2518,7 +2553,7 @@
         <v>45014</v>
       </c>
       <c r="B10" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C10" t="s">
         <v>38</v>
@@ -2527,10 +2562,10 @@
         <v>39</v>
       </c>
       <c r="E10" t="s">
-        <v>95</v>
+        <v>106</v>
       </c>
       <c r="F10" t="s">
-        <v>95</v>
+        <v>106</v>
       </c>
       <c r="G10" t="s">
         <v>41</v>
@@ -2542,10 +2577,10 @@
         <v>43</v>
       </c>
       <c r="J10" t="s">
-        <v>115</v>
-      </c>
-      <c r="K10">
-        <v>1600512</v>
+        <v>116</v>
+      </c>
+      <c r="K10" t="s">
+        <v>117</v>
       </c>
       <c r="L10" t="s">
         <v>43</v>
@@ -2554,16 +2589,16 @@
         <v>43</v>
       </c>
       <c r="N10">
-        <v>2904</v>
+        <v>1980</v>
       </c>
       <c r="O10" t="s">
         <v>43</v>
       </c>
       <c r="P10">
-        <v>581195</v>
+        <v>581206</v>
       </c>
       <c r="Q10" t="s">
-        <v>98</v>
+        <v>118</v>
       </c>
       <c r="R10" t="s">
         <v>43</v>
@@ -2572,22 +2607,22 @@
         <v>43</v>
       </c>
       <c r="T10" t="s">
-        <v>116</v>
+        <v>46</v>
       </c>
       <c r="U10" t="s">
-        <v>117</v>
+        <v>47</v>
       </c>
       <c r="V10" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="W10" t="s">
         <v>49</v>
       </c>
       <c r="X10" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="Y10" t="s">
-        <v>101</v>
+        <v>121</v>
       </c>
       <c r="Z10" t="s">
         <v>78</v>
@@ -2605,7 +2640,7 @@
         <v>43</v>
       </c>
       <c r="AE10" t="s">
-        <v>53</v>
+        <v>122</v>
       </c>
       <c r="AF10" t="s">
         <v>102</v>
@@ -2614,19 +2649,19 @@
         <v>43</v>
       </c>
       <c r="AH10">
-        <v>581195</v>
+        <v>581206</v>
       </c>
       <c r="AI10" t="s">
+        <v>123</v>
+      </c>
+      <c r="AJ10" t="s">
         <v>120</v>
       </c>
-      <c r="AJ10" t="s">
-        <v>119</v>
-      </c>
       <c r="AK10" t="s">
-        <v>101</v>
+        <v>112</v>
       </c>
       <c r="AL10" t="s">
-        <v>104</v>
+        <v>114</v>
       </c>
       <c r="AM10" t="s">
         <v>49</v>
@@ -2637,10 +2672,10 @@
     </row>
     <row r="11" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
-        <v>45019</v>
+        <v>45014</v>
       </c>
       <c r="B11" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="C11" t="s">
         <v>38</v>
@@ -2649,10 +2684,10 @@
         <v>39</v>
       </c>
       <c r="E11" t="s">
-        <v>122</v>
+        <v>106</v>
       </c>
       <c r="F11" t="s">
-        <v>122</v>
+        <v>106</v>
       </c>
       <c r="G11" t="s">
         <v>41</v>
@@ -2664,10 +2699,10 @@
         <v>43</v>
       </c>
       <c r="J11" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="K11">
-        <v>1470136</v>
+        <v>1600512</v>
       </c>
       <c r="L11" t="s">
         <v>43</v>
@@ -2676,16 +2711,16 @@
         <v>43</v>
       </c>
       <c r="N11">
-        <v>2478.3200000000002</v>
+        <v>2904</v>
       </c>
       <c r="O11" t="s">
         <v>43</v>
       </c>
       <c r="P11">
-        <v>582523</v>
+        <v>581195</v>
       </c>
       <c r="Q11" t="s">
-        <v>124</v>
+        <v>109</v>
       </c>
       <c r="R11" t="s">
         <v>43</v>
@@ -2694,34 +2729,34 @@
         <v>43</v>
       </c>
       <c r="T11" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="U11" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="V11" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="W11" t="s">
-        <v>128</v>
+        <v>49</v>
       </c>
       <c r="X11" t="s">
         <v>129</v>
       </c>
       <c r="Y11" t="s">
-        <v>130</v>
+        <v>112</v>
       </c>
       <c r="Z11" t="s">
-        <v>52</v>
+        <v>78</v>
       </c>
       <c r="AA11">
-        <v>3525041411</v>
+        <v>7734223028</v>
       </c>
       <c r="AB11" t="s">
         <v>43</v>
       </c>
       <c r="AC11">
-        <v>3525041411</v>
+        <v>7734223028</v>
       </c>
       <c r="AD11" t="s">
         <v>43</v>
@@ -2730,274 +2765,274 @@
         <v>53</v>
       </c>
       <c r="AF11" t="s">
-        <v>66</v>
+        <v>102</v>
       </c>
       <c r="AG11" t="s">
         <v>43</v>
       </c>
       <c r="AH11">
-        <v>582523</v>
+        <v>581195</v>
       </c>
       <c r="AI11" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="AJ11" t="s">
         <v>129</v>
       </c>
       <c r="AK11" t="s">
-        <v>130</v>
+        <v>112</v>
       </c>
       <c r="AL11" t="s">
-        <v>43</v>
+        <v>114</v>
       </c>
       <c r="AM11" t="s">
-        <v>128</v>
+        <v>49</v>
       </c>
       <c r="AN11" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="12" spans="1:40" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="2">
-        <v>45022</v>
-      </c>
-      <c r="B12" s="3" t="s">
+    <row r="12" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A12" s="1">
+        <v>45019</v>
+      </c>
+      <c r="B12" t="s">
+        <v>131</v>
+      </c>
+      <c r="C12" t="s">
+        <v>38</v>
+      </c>
+      <c r="D12" t="s">
+        <v>39</v>
+      </c>
+      <c r="E12" t="s">
         <v>132</v>
       </c>
-      <c r="C12" s="3" t="s">
+      <c r="F12" t="s">
+        <v>132</v>
+      </c>
+      <c r="G12" t="s">
+        <v>41</v>
+      </c>
+      <c r="H12" t="s">
+        <v>42</v>
+      </c>
+      <c r="I12" t="s">
+        <v>43</v>
+      </c>
+      <c r="J12" t="s">
+        <v>133</v>
+      </c>
+      <c r="K12">
+        <v>1470136</v>
+      </c>
+      <c r="L12" t="s">
+        <v>43</v>
+      </c>
+      <c r="M12" t="s">
+        <v>43</v>
+      </c>
+      <c r="N12">
+        <v>2478.3200000000002</v>
+      </c>
+      <c r="O12" t="s">
+        <v>43</v>
+      </c>
+      <c r="P12">
+        <v>582523</v>
+      </c>
+      <c r="Q12" t="s">
+        <v>134</v>
+      </c>
+      <c r="R12" t="s">
+        <v>43</v>
+      </c>
+      <c r="S12" t="s">
+        <v>43</v>
+      </c>
+      <c r="T12" t="s">
+        <v>135</v>
+      </c>
+      <c r="U12" t="s">
+        <v>136</v>
+      </c>
+      <c r="V12" t="s">
+        <v>137</v>
+      </c>
+      <c r="W12" t="s">
+        <v>138</v>
+      </c>
+      <c r="X12" t="s">
+        <v>139</v>
+      </c>
+      <c r="Y12" t="s">
+        <v>140</v>
+      </c>
+      <c r="Z12" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA12">
+        <v>3525041411</v>
+      </c>
+      <c r="AB12" t="s">
+        <v>43</v>
+      </c>
+      <c r="AC12">
+        <v>3525041411</v>
+      </c>
+      <c r="AD12" t="s">
+        <v>43</v>
+      </c>
+      <c r="AE12" t="s">
+        <v>53</v>
+      </c>
+      <c r="AF12" t="s">
+        <v>66</v>
+      </c>
+      <c r="AG12" t="s">
+        <v>43</v>
+      </c>
+      <c r="AH12">
+        <v>582523</v>
+      </c>
+      <c r="AI12" t="s">
+        <v>141</v>
+      </c>
+      <c r="AJ12" t="s">
+        <v>139</v>
+      </c>
+      <c r="AK12" t="s">
+        <v>140</v>
+      </c>
+      <c r="AL12" t="s">
+        <v>43</v>
+      </c>
+      <c r="AM12" t="s">
+        <v>138</v>
+      </c>
+      <c r="AN12" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="13" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A13" s="1">
+        <v>45021</v>
+      </c>
+      <c r="B13" t="s">
+        <v>142</v>
+      </c>
+      <c r="C13" t="s">
         <v>38</v>
       </c>
-      <c r="D12" s="3" t="s">
+      <c r="D13" t="s">
         <v>39</v>
       </c>
-      <c r="E12" s="3" t="s">
-        <v>133</v>
-      </c>
-      <c r="F12" s="3" t="s">
-        <v>133</v>
-      </c>
-      <c r="G12" s="3" t="s">
-        <v>134</v>
-      </c>
-      <c r="H12" s="3" t="s">
+      <c r="E13" t="s">
+        <v>143</v>
+      </c>
+      <c r="F13" t="s">
+        <v>144</v>
+      </c>
+      <c r="G13" t="s">
+        <v>96</v>
+      </c>
+      <c r="H13" t="s">
         <v>42</v>
       </c>
-      <c r="I12" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="J12" s="3" t="s">
-        <v>135</v>
-      </c>
-      <c r="K12" s="3" t="s">
-        <v>136</v>
-      </c>
-      <c r="L12" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="M12" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="N12" s="3">
-        <v>2664.19</v>
-      </c>
-      <c r="O12" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="P12" s="3">
-        <v>583892</v>
-      </c>
-      <c r="Q12" s="3" t="s">
-        <v>137</v>
-      </c>
-      <c r="R12" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="S12" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="T12" s="3" t="s">
-        <v>116</v>
-      </c>
-      <c r="U12" s="3" t="s">
-        <v>117</v>
-      </c>
-      <c r="V12" s="3" t="s">
-        <v>138</v>
-      </c>
-      <c r="W12" s="3" t="s">
+      <c r="I13" t="s">
+        <v>43</v>
+      </c>
+      <c r="J13" t="s">
+        <v>82</v>
+      </c>
+      <c r="K13">
+        <v>81210403</v>
+      </c>
+      <c r="L13" t="s">
+        <v>43</v>
+      </c>
+      <c r="M13" t="s">
+        <v>43</v>
+      </c>
+      <c r="N13">
+        <v>4894.68</v>
+      </c>
+      <c r="O13" t="s">
+        <v>43</v>
+      </c>
+      <c r="P13">
+        <v>583419</v>
+      </c>
+      <c r="Q13" t="s">
+        <v>145</v>
+      </c>
+      <c r="R13" t="s">
+        <v>43</v>
+      </c>
+      <c r="S13" t="s">
+        <v>43</v>
+      </c>
+      <c r="T13" t="s">
+        <v>126</v>
+      </c>
+      <c r="U13" t="s">
+        <v>127</v>
+      </c>
+      <c r="V13" t="s">
+        <v>146</v>
+      </c>
+      <c r="W13" t="s">
         <v>49</v>
       </c>
-      <c r="X12" s="3" t="s">
-        <v>139</v>
-      </c>
-      <c r="Y12" s="3" t="s">
-        <v>140</v>
-      </c>
-      <c r="Z12" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="AA12" s="3">
-        <v>7717149663</v>
-      </c>
-      <c r="AB12" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="AC12" s="3">
-        <v>7717149663</v>
-      </c>
-      <c r="AD12" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="AE12" s="3" t="s">
+      <c r="X13" t="s">
+        <v>147</v>
+      </c>
+      <c r="Y13" t="s">
+        <v>148</v>
+      </c>
+      <c r="Z13" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA13">
+        <v>7701984274</v>
+      </c>
+      <c r="AB13" t="s">
+        <v>43</v>
+      </c>
+      <c r="AC13">
+        <v>7734191827</v>
+      </c>
+      <c r="AD13" t="s">
+        <v>43</v>
+      </c>
+      <c r="AE13" t="s">
         <v>53</v>
       </c>
-      <c r="AF12" s="3" t="s">
-        <v>141</v>
-      </c>
-      <c r="AG12" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="AH12" s="3">
-        <v>583892</v>
-      </c>
-      <c r="AI12" s="3" t="s">
-        <v>142</v>
-      </c>
-      <c r="AJ12" s="3" t="s">
-        <v>139</v>
-      </c>
-      <c r="AK12" s="3" t="s">
-        <v>143</v>
-      </c>
-      <c r="AL12" s="3" t="s">
-        <v>144</v>
-      </c>
-      <c r="AM12" s="3" t="s">
+      <c r="AF13" t="s">
+        <v>112</v>
+      </c>
+      <c r="AG13" t="s">
+        <v>43</v>
+      </c>
+      <c r="AH13">
+        <v>583419</v>
+      </c>
+      <c r="AI13" t="s">
+        <v>149</v>
+      </c>
+      <c r="AJ13" t="s">
+        <v>147</v>
+      </c>
+      <c r="AK13" t="s">
+        <v>148</v>
+      </c>
+      <c r="AL13" t="s">
+        <v>150</v>
+      </c>
+      <c r="AM13" t="s">
         <v>49</v>
       </c>
-      <c r="AN12" s="3" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="13" spans="1:40" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="2">
-        <v>45022</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>145</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="D13" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="E13" s="3" t="s">
-        <v>133</v>
-      </c>
-      <c r="F13" s="3" t="s">
-        <v>133</v>
-      </c>
-      <c r="G13" s="3" t="s">
-        <v>134</v>
-      </c>
-      <c r="H13" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="I13" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="J13" s="3" t="s">
-        <v>146</v>
-      </c>
-      <c r="K13" s="3">
-        <v>220156</v>
-      </c>
-      <c r="L13" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="M13" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="N13" s="3">
-        <v>2664.19</v>
-      </c>
-      <c r="O13" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="P13" s="3">
-        <v>583892</v>
-      </c>
-      <c r="Q13" s="3" t="s">
-        <v>137</v>
-      </c>
-      <c r="R13" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="S13" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="T13" s="3" t="s">
-        <v>116</v>
-      </c>
-      <c r="U13" s="3" t="s">
-        <v>117</v>
-      </c>
-      <c r="V13" s="3" t="s">
-        <v>147</v>
-      </c>
-      <c r="W13" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="X13" s="3" t="s">
-        <v>148</v>
-      </c>
-      <c r="Y13" s="3" t="s">
-        <v>143</v>
-      </c>
-      <c r="Z13" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="AA13" s="3">
-        <v>7717149663</v>
-      </c>
-      <c r="AB13" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="AC13" s="3">
-        <v>7717149663</v>
-      </c>
-      <c r="AD13" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="AE13" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="AF13" s="3" t="s">
-        <v>141</v>
-      </c>
-      <c r="AG13" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="AH13" s="3">
-        <v>583892</v>
-      </c>
-      <c r="AI13" s="3" t="s">
-        <v>149</v>
-      </c>
-      <c r="AJ13" s="3" t="s">
-        <v>148</v>
-      </c>
-      <c r="AK13" s="3" t="s">
-        <v>143</v>
-      </c>
-      <c r="AL13" s="3" t="s">
-        <v>144</v>
-      </c>
-      <c r="AM13" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="AN13" s="3" t="s">
+      <c r="AN13" t="s">
         <v>57</v>
       </c>
     </row>
@@ -3006,7 +3041,7 @@
         <v>45022</v>
       </c>
       <c r="B14" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="C14" t="s">
         <v>38</v>
@@ -3015,13 +3050,13 @@
         <v>39</v>
       </c>
       <c r="E14" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="F14" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="G14" t="s">
-        <v>41</v>
+        <v>96</v>
       </c>
       <c r="H14" t="s">
         <v>42</v>
@@ -3030,10 +3065,10 @@
         <v>43</v>
       </c>
       <c r="J14" t="s">
-        <v>82</v>
+        <v>153</v>
       </c>
       <c r="K14" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="L14" t="s">
         <v>43</v>
@@ -3042,16 +3077,16 @@
         <v>43</v>
       </c>
       <c r="N14">
-        <v>4894.68</v>
+        <v>2664.19</v>
       </c>
       <c r="O14" t="s">
         <v>43</v>
       </c>
       <c r="P14">
-        <v>584057</v>
+        <v>583892</v>
       </c>
       <c r="Q14" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="R14" t="s">
         <v>43</v>
@@ -3060,10 +3095,10 @@
         <v>43</v>
       </c>
       <c r="T14" t="s">
-        <v>154</v>
+        <v>126</v>
       </c>
       <c r="U14" t="s">
-        <v>155</v>
+        <v>127</v>
       </c>
       <c r="V14" t="s">
         <v>156</v>
@@ -3075,19 +3110,19 @@
         <v>157</v>
       </c>
       <c r="Y14" t="s">
-        <v>130</v>
+        <v>101</v>
       </c>
       <c r="Z14" t="s">
-        <v>52</v>
+        <v>78</v>
       </c>
       <c r="AA14">
-        <v>7723836671</v>
+        <v>7717149663</v>
       </c>
       <c r="AB14" t="s">
         <v>43</v>
       </c>
       <c r="AC14">
-        <v>7723836671</v>
+        <v>7717149663</v>
       </c>
       <c r="AD14" t="s">
         <v>43</v>
@@ -3096,25 +3131,25 @@
         <v>53</v>
       </c>
       <c r="AF14" t="s">
-        <v>141</v>
+        <v>158</v>
       </c>
       <c r="AG14" t="s">
         <v>43</v>
       </c>
       <c r="AH14">
-        <v>584057</v>
+        <v>583892</v>
       </c>
       <c r="AI14" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="AJ14" t="s">
         <v>157</v>
       </c>
       <c r="AK14" t="s">
-        <v>130</v>
+        <v>160</v>
       </c>
       <c r="AL14" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="AM14" t="s">
         <v>49</v>
@@ -3123,131 +3158,131 @@
         <v>57</v>
       </c>
     </row>
-    <row r="15" spans="1:40" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="2">
+    <row r="15" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A15" s="1">
         <v>45022</v>
       </c>
-      <c r="B15" s="3" t="s">
-        <v>121</v>
-      </c>
-      <c r="C15" s="3" t="s">
+      <c r="B15" t="s">
+        <v>162</v>
+      </c>
+      <c r="C15" t="s">
         <v>38</v>
       </c>
-      <c r="D15" s="3" t="s">
+      <c r="D15" t="s">
         <v>39</v>
       </c>
-      <c r="E15" s="3" t="s">
+      <c r="E15" t="s">
+        <v>152</v>
+      </c>
+      <c r="F15" t="s">
+        <v>152</v>
+      </c>
+      <c r="G15" t="s">
+        <v>96</v>
+      </c>
+      <c r="H15" t="s">
+        <v>42</v>
+      </c>
+      <c r="I15" t="s">
+        <v>43</v>
+      </c>
+      <c r="J15" t="s">
+        <v>163</v>
+      </c>
+      <c r="K15">
+        <v>220156</v>
+      </c>
+      <c r="L15" t="s">
+        <v>43</v>
+      </c>
+      <c r="M15" t="s">
+        <v>43</v>
+      </c>
+      <c r="N15">
+        <v>2664.19</v>
+      </c>
+      <c r="O15" t="s">
+        <v>43</v>
+      </c>
+      <c r="P15">
+        <v>583892</v>
+      </c>
+      <c r="Q15" t="s">
+        <v>155</v>
+      </c>
+      <c r="R15" t="s">
+        <v>43</v>
+      </c>
+      <c r="S15" t="s">
+        <v>43</v>
+      </c>
+      <c r="T15" t="s">
+        <v>126</v>
+      </c>
+      <c r="U15" t="s">
+        <v>127</v>
+      </c>
+      <c r="V15" t="s">
+        <v>164</v>
+      </c>
+      <c r="W15" t="s">
+        <v>49</v>
+      </c>
+      <c r="X15" t="s">
+        <v>165</v>
+      </c>
+      <c r="Y15" t="s">
         <v>160</v>
       </c>
-      <c r="F15" s="3" t="s">
+      <c r="Z15" t="s">
+        <v>78</v>
+      </c>
+      <c r="AA15">
+        <v>7717149663</v>
+      </c>
+      <c r="AB15" t="s">
+        <v>43</v>
+      </c>
+      <c r="AC15">
+        <v>7717149663</v>
+      </c>
+      <c r="AD15" t="s">
+        <v>43</v>
+      </c>
+      <c r="AE15" t="s">
+        <v>53</v>
+      </c>
+      <c r="AF15" t="s">
+        <v>158</v>
+      </c>
+      <c r="AG15" t="s">
+        <v>43</v>
+      </c>
+      <c r="AH15">
+        <v>583892</v>
+      </c>
+      <c r="AI15" t="s">
+        <v>166</v>
+      </c>
+      <c r="AJ15" t="s">
+        <v>165</v>
+      </c>
+      <c r="AK15" t="s">
         <v>160</v>
       </c>
-      <c r="G15" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="H15" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="I15" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="J15" s="3" t="s">
-        <v>123</v>
-      </c>
-      <c r="K15" s="3">
-        <v>2170231</v>
-      </c>
-      <c r="L15" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="M15" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="N15" s="3">
-        <v>2478.3200000000002</v>
-      </c>
-      <c r="O15" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="P15" s="3">
-        <v>584107</v>
-      </c>
-      <c r="Q15" s="3" t="s">
+      <c r="AL15" t="s">
         <v>161</v>
       </c>
-      <c r="R15" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="S15" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="T15" s="3" t="s">
-        <v>162</v>
-      </c>
-      <c r="U15" s="3" t="s">
-        <v>163</v>
-      </c>
-      <c r="V15" s="3" t="s">
-        <v>164</v>
-      </c>
-      <c r="W15" s="3" t="s">
+      <c r="AM15" t="s">
         <v>49</v>
       </c>
-      <c r="X15" s="3" t="s">
-        <v>129</v>
-      </c>
-      <c r="Y15" s="3" t="s">
-        <v>140</v>
-      </c>
-      <c r="Z15" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="AA15" s="3">
-        <v>9715395917</v>
-      </c>
-      <c r="AB15" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="AC15" s="3">
-        <v>9715395917</v>
-      </c>
-      <c r="AD15" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="AE15" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="AF15" s="3" t="s">
-        <v>141</v>
-      </c>
-      <c r="AG15" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="AH15" s="3">
-        <v>584107</v>
-      </c>
-      <c r="AI15" s="3" t="s">
-        <v>165</v>
-      </c>
-      <c r="AJ15" s="3" t="s">
-        <v>129</v>
-      </c>
-      <c r="AK15" s="3" t="s">
-        <v>143</v>
-      </c>
-      <c r="AL15" s="3" t="s">
-        <v>166</v>
-      </c>
-      <c r="AM15" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="AN15" s="3" t="s">
+      <c r="AN15" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="16" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
-        <v>45026</v>
+        <v>45022</v>
       </c>
       <c r="B16" t="s">
         <v>167</v>
@@ -3274,64 +3309,64 @@
         <v>43</v>
       </c>
       <c r="J16" t="s">
+        <v>82</v>
+      </c>
+      <c r="K16" t="s">
         <v>169</v>
       </c>
-      <c r="K16" t="s">
+      <c r="L16" t="s">
+        <v>43</v>
+      </c>
+      <c r="M16" t="s">
+        <v>43</v>
+      </c>
+      <c r="N16">
+        <v>4894.68</v>
+      </c>
+      <c r="O16" t="s">
+        <v>43</v>
+      </c>
+      <c r="P16">
+        <v>584057</v>
+      </c>
+      <c r="Q16" t="s">
         <v>170</v>
       </c>
-      <c r="L16" t="s">
-        <v>43</v>
-      </c>
-      <c r="M16" t="s">
-        <v>43</v>
-      </c>
-      <c r="N16">
-        <v>11200</v>
-      </c>
-      <c r="O16" t="s">
-        <v>43</v>
-      </c>
-      <c r="P16">
-        <v>584717</v>
-      </c>
-      <c r="Q16" t="s">
+      <c r="R16" t="s">
+        <v>43</v>
+      </c>
+      <c r="S16" t="s">
+        <v>43</v>
+      </c>
+      <c r="T16" t="s">
         <v>171</v>
       </c>
-      <c r="R16" t="s">
-        <v>43</v>
-      </c>
-      <c r="S16" t="s">
-        <v>43</v>
-      </c>
-      <c r="T16" t="s">
-        <v>46</v>
-      </c>
       <c r="U16" t="s">
-        <v>47</v>
+        <v>172</v>
       </c>
       <c r="V16" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="W16" t="s">
         <v>49</v>
       </c>
       <c r="X16" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="Y16" t="s">
-        <v>111</v>
+        <v>140</v>
       </c>
       <c r="Z16" t="s">
-        <v>78</v>
+        <v>52</v>
       </c>
       <c r="AA16">
-        <v>7810102130</v>
+        <v>7723836671</v>
       </c>
       <c r="AB16" t="s">
         <v>43</v>
       </c>
       <c r="AC16">
-        <v>7810102130</v>
+        <v>7723836671</v>
       </c>
       <c r="AD16" t="s">
         <v>43</v>
@@ -3340,22 +3375,22 @@
         <v>53</v>
       </c>
       <c r="AF16" t="s">
-        <v>174</v>
+        <v>158</v>
       </c>
       <c r="AG16" t="s">
         <v>43</v>
       </c>
       <c r="AH16">
-        <v>584717</v>
+        <v>584057</v>
       </c>
       <c r="AI16" t="s">
         <v>175</v>
       </c>
       <c r="AJ16" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="AK16" t="s">
-        <v>111</v>
+        <v>140</v>
       </c>
       <c r="AL16" t="s">
         <v>176</v>
@@ -3369,10 +3404,10 @@
     </row>
     <row r="17" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
-        <v>45027</v>
+        <v>45022</v>
       </c>
       <c r="B17" t="s">
-        <v>177</v>
+        <v>131</v>
       </c>
       <c r="C17" t="s">
         <v>38</v>
@@ -3381,10 +3416,10 @@
         <v>39</v>
       </c>
       <c r="E17" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="F17" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="G17" t="s">
         <v>41</v>
@@ -3396,10 +3431,10 @@
         <v>43</v>
       </c>
       <c r="J17" t="s">
-        <v>123</v>
+        <v>133</v>
       </c>
       <c r="K17">
-        <v>1870618</v>
+        <v>2170231</v>
       </c>
       <c r="L17" t="s">
         <v>43</v>
@@ -3414,46 +3449,46 @@
         <v>43</v>
       </c>
       <c r="P17">
-        <v>585138</v>
+        <v>584107</v>
       </c>
       <c r="Q17" t="s">
+        <v>178</v>
+      </c>
+      <c r="R17" t="s">
+        <v>43</v>
+      </c>
+      <c r="S17" t="s">
+        <v>43</v>
+      </c>
+      <c r="T17" t="s">
         <v>179</v>
       </c>
-      <c r="R17" t="s">
-        <v>43</v>
-      </c>
-      <c r="S17" t="s">
-        <v>43</v>
-      </c>
-      <c r="T17" t="s">
-        <v>162</v>
-      </c>
       <c r="U17" t="s">
-        <v>163</v>
+        <v>180</v>
       </c>
       <c r="V17" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="W17" t="s">
-        <v>128</v>
+        <v>49</v>
       </c>
       <c r="X17" t="s">
-        <v>129</v>
+        <v>139</v>
       </c>
       <c r="Y17" t="s">
-        <v>130</v>
+        <v>101</v>
       </c>
       <c r="Z17" t="s">
         <v>52</v>
       </c>
       <c r="AA17">
-        <v>9715321249</v>
+        <v>9715395917</v>
       </c>
       <c r="AB17" t="s">
         <v>43</v>
       </c>
       <c r="AC17">
-        <v>9715321249</v>
+        <v>9715395917</v>
       </c>
       <c r="AD17" t="s">
         <v>43</v>
@@ -3462,30 +3497,274 @@
         <v>53</v>
       </c>
       <c r="AF17" t="s">
-        <v>181</v>
+        <v>158</v>
       </c>
       <c r="AG17" t="s">
         <v>43</v>
       </c>
       <c r="AH17">
-        <v>585138</v>
+        <v>584107</v>
       </c>
       <c r="AI17" t="s">
         <v>182</v>
       </c>
       <c r="AJ17" t="s">
-        <v>129</v>
+        <v>139</v>
       </c>
       <c r="AK17" t="s">
-        <v>130</v>
+        <v>160</v>
       </c>
       <c r="AL17" t="s">
-        <v>43</v>
+        <v>183</v>
       </c>
       <c r="AM17" t="s">
-        <v>128</v>
+        <v>49</v>
       </c>
       <c r="AN17" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="18" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A18" s="1">
+        <v>45026</v>
+      </c>
+      <c r="B18" t="s">
+        <v>184</v>
+      </c>
+      <c r="C18" t="s">
+        <v>38</v>
+      </c>
+      <c r="D18" t="s">
+        <v>39</v>
+      </c>
+      <c r="E18" t="s">
+        <v>185</v>
+      </c>
+      <c r="F18" t="s">
+        <v>185</v>
+      </c>
+      <c r="G18" t="s">
+        <v>41</v>
+      </c>
+      <c r="H18" t="s">
+        <v>42</v>
+      </c>
+      <c r="I18" t="s">
+        <v>43</v>
+      </c>
+      <c r="J18" t="s">
+        <v>186</v>
+      </c>
+      <c r="K18" t="s">
+        <v>187</v>
+      </c>
+      <c r="L18" t="s">
+        <v>43</v>
+      </c>
+      <c r="M18" t="s">
+        <v>43</v>
+      </c>
+      <c r="N18">
+        <v>11200</v>
+      </c>
+      <c r="O18" t="s">
+        <v>43</v>
+      </c>
+      <c r="P18">
+        <v>584717</v>
+      </c>
+      <c r="Q18" t="s">
+        <v>188</v>
+      </c>
+      <c r="R18" t="s">
+        <v>43</v>
+      </c>
+      <c r="S18" t="s">
+        <v>43</v>
+      </c>
+      <c r="T18" t="s">
+        <v>46</v>
+      </c>
+      <c r="U18" t="s">
+        <v>47</v>
+      </c>
+      <c r="V18" t="s">
+        <v>189</v>
+      </c>
+      <c r="W18" t="s">
+        <v>49</v>
+      </c>
+      <c r="X18" t="s">
+        <v>190</v>
+      </c>
+      <c r="Y18" t="s">
+        <v>121</v>
+      </c>
+      <c r="Z18" t="s">
+        <v>78</v>
+      </c>
+      <c r="AA18">
+        <v>7810102130</v>
+      </c>
+      <c r="AB18" t="s">
+        <v>43</v>
+      </c>
+      <c r="AC18">
+        <v>7810102130</v>
+      </c>
+      <c r="AD18" t="s">
+        <v>43</v>
+      </c>
+      <c r="AE18" t="s">
+        <v>53</v>
+      </c>
+      <c r="AF18" t="s">
+        <v>191</v>
+      </c>
+      <c r="AG18" t="s">
+        <v>43</v>
+      </c>
+      <c r="AH18">
+        <v>584717</v>
+      </c>
+      <c r="AI18" t="s">
+        <v>192</v>
+      </c>
+      <c r="AJ18" t="s">
+        <v>190</v>
+      </c>
+      <c r="AK18" t="s">
+        <v>121</v>
+      </c>
+      <c r="AL18" t="s">
+        <v>193</v>
+      </c>
+      <c r="AM18" t="s">
+        <v>49</v>
+      </c>
+      <c r="AN18" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="19" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A19" s="1">
+        <v>45027</v>
+      </c>
+      <c r="B19" t="s">
+        <v>194</v>
+      </c>
+      <c r="C19" t="s">
+        <v>38</v>
+      </c>
+      <c r="D19" t="s">
+        <v>39</v>
+      </c>
+      <c r="E19" t="s">
+        <v>195</v>
+      </c>
+      <c r="F19" t="s">
+        <v>195</v>
+      </c>
+      <c r="G19" t="s">
+        <v>41</v>
+      </c>
+      <c r="H19" t="s">
+        <v>42</v>
+      </c>
+      <c r="I19" t="s">
+        <v>43</v>
+      </c>
+      <c r="J19" t="s">
+        <v>133</v>
+      </c>
+      <c r="K19">
+        <v>1870618</v>
+      </c>
+      <c r="L19" t="s">
+        <v>43</v>
+      </c>
+      <c r="M19" t="s">
+        <v>43</v>
+      </c>
+      <c r="N19">
+        <v>2478.3200000000002</v>
+      </c>
+      <c r="O19" t="s">
+        <v>43</v>
+      </c>
+      <c r="P19">
+        <v>585138</v>
+      </c>
+      <c r="Q19" t="s">
+        <v>196</v>
+      </c>
+      <c r="R19" t="s">
+        <v>43</v>
+      </c>
+      <c r="S19" t="s">
+        <v>43</v>
+      </c>
+      <c r="T19" t="s">
+        <v>179</v>
+      </c>
+      <c r="U19" t="s">
+        <v>180</v>
+      </c>
+      <c r="V19" t="s">
+        <v>197</v>
+      </c>
+      <c r="W19" t="s">
+        <v>138</v>
+      </c>
+      <c r="X19" t="s">
+        <v>139</v>
+      </c>
+      <c r="Y19" t="s">
+        <v>140</v>
+      </c>
+      <c r="Z19" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA19">
+        <v>9715321249</v>
+      </c>
+      <c r="AB19" t="s">
+        <v>43</v>
+      </c>
+      <c r="AC19">
+        <v>9715321249</v>
+      </c>
+      <c r="AD19" t="s">
+        <v>43</v>
+      </c>
+      <c r="AE19" t="s">
+        <v>53</v>
+      </c>
+      <c r="AF19" t="s">
+        <v>198</v>
+      </c>
+      <c r="AG19" t="s">
+        <v>43</v>
+      </c>
+      <c r="AH19">
+        <v>585138</v>
+      </c>
+      <c r="AI19" t="s">
+        <v>199</v>
+      </c>
+      <c r="AJ19" t="s">
+        <v>139</v>
+      </c>
+      <c r="AK19" t="s">
+        <v>140</v>
+      </c>
+      <c r="AL19" t="s">
+        <v>43</v>
+      </c>
+      <c r="AM19" t="s">
+        <v>138</v>
+      </c>
+      <c r="AN19" t="s">
         <v>57</v>
       </c>
     </row>
